--- a/biology/Médecine/Helen_Hobbs/Helen_Hobbs.xlsx
+++ b/biology/Médecine/Helen_Hobbs/Helen_Hobbs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helen Hobbs, née en 1952, est une biologiste moléculaire et généticienne américaine[1].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helen Hobbs, née en 1952, est une biologiste moléculaire et généticienne américaine.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est professeur et directrice de recherches à l'École médicale du Sud-Ouest de l'université du Texas[2] et au Howard Hughes Medical Institute[3]. En 2016, elle a reçu le Breakthrough Prize in Life Sciences pour la découverte de variantes génétiques, qui modifient les niveaux et la distribution du cholestérol et autres lipides dans le corps humain. Cela a inspiré de nouvelles approches dans la prévention des maladies cardiovasculaires et des maladies du foie[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est professeur et directrice de recherches à l'École médicale du Sud-Ouest de l'université du Texas et au Howard Hughes Medical Institute. En 2016, elle a reçu le Breakthrough Prize in Life Sciences pour la découverte de variantes génétiques, qui modifient les niveaux et la distribution du cholestérol et autres lipides dans le corps humain. Cela a inspiré de nouvelles approches dans la prévention des maladies cardiovasculaires et des maladies du foie.
 </t>
         </is>
       </c>
